--- a/hrv/HRV_teste.xlsx
+++ b/hrv/HRV_teste.xlsx
@@ -509,8 +509,8 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2995,31 +2995,31 @@
         <v>43546</v>
       </c>
       <c r="B82" s="12">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2">
         <f t="shared" si="0"/>
-        <v>3.8501476017100584</v>
+        <v>3.912023005428146</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" si="3"/>
-        <v>4.1160556524807186</v>
+        <v>4.124894995869016</v>
       </c>
       <c r="E82" s="6">
         <f t="shared" si="4"/>
-        <v>4.2422333550939575</v>
+        <v>4.2424939587040562</v>
       </c>
       <c r="F82" s="6">
         <f t="shared" si="5"/>
-        <v>4.0753927152219207</v>
+        <v>4.0792571385263603</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" si="6"/>
-        <v>4.1588130351579391</v>
+        <v>4.1608755486152083</v>
       </c>
       <c r="H82" s="2">
         <f t="shared" si="7"/>
-        <v>0.16684063987203732</v>
+        <v>0.16323682017769583</v>
       </c>
       <c r="K82" s="3"/>
     </row>
@@ -3029,31 +3029,31 @@
         <v>43547</v>
       </c>
       <c r="B83" s="12">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2">
         <f t="shared" si="0"/>
-        <v>3.8918202981106265</v>
+        <v>3.970291913552122</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" si="3"/>
-        <v>4.1131695514353579</v>
+        <v>4.1332191256010127</v>
       </c>
       <c r="E83" s="6">
         <f t="shared" si="4"/>
-        <v>4.2368188341693171</v>
+        <v>4.2380423493088495</v>
       </c>
       <c r="F83" s="6">
         <f t="shared" si="5"/>
-        <v>4.0630030504632932</v>
+        <v>4.0711360032677311</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" si="6"/>
-        <v>4.1499109423163052</v>
+        <v>4.1545891762882903</v>
       </c>
       <c r="H83" s="2">
         <f t="shared" si="7"/>
-        <v>0.17381578370602466</v>
+        <v>0.1669063460411177</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -3063,31 +3063,31 @@
         <v>43548</v>
       </c>
       <c r="B84" s="12">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2">
         <f t="shared" si="0"/>
-        <v>3.8066624897703196</v>
+        <v>3.912023005428146</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" si="3"/>
-        <v>4.0521061207457949</v>
+        <v>4.087207197148282</v>
       </c>
       <c r="E84" s="6">
         <f t="shared" si="4"/>
-        <v>4.2310842618207261</v>
+        <v>4.2332288346883216</v>
       </c>
       <c r="F84" s="6">
         <f t="shared" si="5"/>
-        <v>4.0463061403704685</v>
+        <v>4.0605420698240318</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" si="6"/>
-        <v>4.1386952010955973</v>
+        <v>4.1468854522561767</v>
       </c>
       <c r="H84" s="2">
         <f t="shared" si="7"/>
-        <v>0.18477812145025821</v>
+        <v>0.17268676486429058</v>
       </c>
       <c r="K84" s="3"/>
     </row>
@@ -3105,23 +3105,23 @@
       </c>
       <c r="D85" s="2">
         <f t="shared" si="3"/>
-        <v>3.9721610081835914</v>
+        <v>4.0072620845860785</v>
       </c>
       <c r="E85" s="6">
         <f t="shared" si="4"/>
-        <v>4.2303669061915254</v>
+        <v>4.2331154107871933</v>
       </c>
       <c r="F85" s="6">
         <f t="shared" si="5"/>
-        <v>4.032147259245388</v>
+        <v>4.0457792569708788</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" si="6"/>
-        <v>4.1312570827184567</v>
+        <v>4.1394473338790361</v>
       </c>
       <c r="H85" s="2">
         <f t="shared" si="7"/>
-        <v>0.19821964694613833</v>
+        <v>0.18733615381631391</v>
       </c>
       <c r="K85" s="3"/>
     </row>
@@ -3130,29 +3130,32 @@
         <f t="shared" si="1"/>
         <v>43550</v>
       </c>
-      <c r="C86" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D86" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E86" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F86" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G86" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H86" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+      <c r="B86" s="12">
+        <v>70</v>
+      </c>
+      <c r="C86" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2484952420493594</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="3"/>
+        <v>4.009317618507807</v>
+      </c>
+      <c r="E86" s="6">
+        <f t="shared" si="4"/>
+        <v>4.2408083167658797</v>
+      </c>
+      <c r="F86" s="6">
+        <f t="shared" si="5"/>
+        <v>4.0541638214466511</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="6"/>
+        <v>4.1474860691062654</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18664449531922797</v>
       </c>
       <c r="K86" s="3"/>
     </row>
@@ -3161,29 +3164,32 @@
         <f t="shared" si="1"/>
         <v>43551</v>
       </c>
-      <c r="C87" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D87" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E87" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F87" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G87" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H87" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+      <c r="B87" s="12">
+        <v>80</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3820266346738812</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0577426709134263</v>
+      </c>
+      <c r="E87" s="6">
+        <f t="shared" si="4"/>
+        <v>4.2526533608333041</v>
+      </c>
+      <c r="F87" s="6">
+        <f t="shared" si="5"/>
+        <v>4.0614975822093458</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="6"/>
+        <v>4.1570754715213249</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="7"/>
+        <v>0.19115577862395899</v>
       </c>
       <c r="K87" s="3"/>
     </row>
@@ -3192,29 +3198,32 @@
         <f t="shared" si="1"/>
         <v>43552</v>
       </c>
-      <c r="C88" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D88" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E88" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F88" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G88" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H88" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+      <c r="B88" s="12">
+        <v>83</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4188406077965983</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0760828375774549</v>
+      </c>
+      <c r="E88" s="6">
+        <f t="shared" si="4"/>
+        <v>4.2626673137585298</v>
+      </c>
+      <c r="F88" s="6">
+        <f t="shared" si="5"/>
+        <v>4.0657601618444952</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="6"/>
+        <v>4.1642137378015125</v>
+      </c>
+      <c r="H88" s="2">
+        <f t="shared" si="7"/>
+        <v>0.19690715191403388</v>
       </c>
       <c r="K88" s="3"/>
     </row>
@@ -3223,29 +3232,32 @@
         <f t="shared" si="1"/>
         <v>43553</v>
       </c>
-      <c r="C89" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D89" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E89" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F89" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G89" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H89" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+      <c r="B89" s="12">
+        <v>85</v>
+      </c>
+      <c r="C89" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4426512564903167</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1518868734434795</v>
+      </c>
+      <c r="E89" s="6">
+        <f t="shared" si="4"/>
+        <v>4.2721221782905792</v>
+      </c>
+      <c r="F89" s="6">
+        <f t="shared" si="5"/>
+        <v>4.0692490316085097</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="6"/>
+        <v>4.1706856049495444</v>
+      </c>
+      <c r="H89" s="2">
+        <f t="shared" si="7"/>
+        <v>0.20287314668206866</v>
       </c>
       <c r="K89" s="3"/>
     </row>
